--- a/Data/Excel_Wide/camino_continents_wide.xlsx
+++ b/Data/Excel_Wide/camino_continents_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M225"/>
+  <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,20 +513,20 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>608</v>
+        <v>1216</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
-      <c r="G2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>643</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="3">
@@ -556,22 +556,22 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1332</v>
+        <v>2664</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1401</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="4">
@@ -599,19 +599,19 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2986</v>
+        <v>5972</v>
       </c>
       <c r="E4" t="n">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3105</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="5">
@@ -642,22 +642,22 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>14934</v>
+        <v>29868</v>
       </c>
       <c r="E5" t="n">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="F5" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G5" t="n">
-        <v>223</v>
+        <v>446</v>
       </c>
       <c r="H5" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>15554</v>
+        <v>31108</v>
       </c>
     </row>
     <row r="6">
@@ -685,22 +685,22 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>15629</v>
+        <v>31258</v>
       </c>
       <c r="E6" t="n">
-        <v>593</v>
+        <v>1186</v>
       </c>
       <c r="F6" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="G6" t="n">
-        <v>487</v>
+        <v>974</v>
       </c>
       <c r="H6" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>16860</v>
+        <v>33720</v>
       </c>
     </row>
     <row r="7">
@@ -728,22 +728,22 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>17831</v>
+        <v>35662</v>
       </c>
       <c r="E7" t="n">
-        <v>763</v>
+        <v>1526</v>
       </c>
       <c r="F7" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="G7" t="n">
-        <v>527</v>
+        <v>1054</v>
       </c>
       <c r="H7" t="n">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="I7" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>19295</v>
+        <v>38590</v>
       </c>
     </row>
     <row r="8">
@@ -771,22 +771,22 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>30615</v>
+        <v>61230</v>
       </c>
       <c r="E8" t="n">
-        <v>679</v>
+        <v>1358</v>
       </c>
       <c r="F8" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="G8" t="n">
-        <v>444</v>
+        <v>888</v>
       </c>
       <c r="H8" t="n">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="I8" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>31891</v>
+        <v>63782</v>
       </c>
     </row>
     <row r="9">
@@ -814,22 +814,22 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>44785</v>
+        <v>89570</v>
       </c>
       <c r="E9" t="n">
-        <v>282</v>
+        <v>564</v>
       </c>
       <c r="F9" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>429</v>
+        <v>858</v>
       </c>
       <c r="H9" t="n">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="I9" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>45601</v>
+        <v>91202</v>
       </c>
     </row>
     <row r="10">
@@ -857,22 +857,22 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>21544</v>
+        <v>43088</v>
       </c>
       <c r="E10" t="n">
-        <v>574</v>
+        <v>1148</v>
       </c>
       <c r="F10" t="n">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="G10" t="n">
-        <v>472</v>
+        <v>944</v>
       </c>
       <c r="H10" t="n">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="I10" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>22752</v>
+        <v>45504</v>
       </c>
     </row>
     <row r="11">
@@ -900,22 +900,22 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>13169</v>
+        <v>26338</v>
       </c>
       <c r="E11" t="n">
-        <v>689</v>
+        <v>1378</v>
       </c>
       <c r="F11" t="n">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="G11" t="n">
-        <v>526</v>
+        <v>1052</v>
       </c>
       <c r="H11" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="I11" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>14556</v>
+        <v>29112</v>
       </c>
     </row>
     <row r="12">
@@ -943,22 +943,22 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>3914</v>
+        <v>7828</v>
       </c>
       <c r="E12" t="n">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="F12" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G12" t="n">
-        <v>322</v>
+        <v>644</v>
       </c>
       <c r="H12" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>4410</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="13">
@@ -986,19 +986,19 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>3658</v>
+        <v>7316</v>
       </c>
       <c r="E13" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3802</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="14">
@@ -1029,20 +1029,20 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>229</v>
+        <v>458</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>26</v>
+      </c>
+      <c r="H14" t="n">
         <v>4</v>
       </c>
-      <c r="G14" t="n">
-        <v>13</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>269</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15">
@@ -1072,19 +1072,19 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>536</v>
+        <v>1072</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H15" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>565</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="16">
@@ -1115,22 +1115,22 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>2898</v>
+        <v>5796</v>
       </c>
       <c r="E16" t="n">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="H16" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>3121</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="17">
@@ -1158,22 +1158,22 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>3009</v>
+        <v>6018</v>
       </c>
       <c r="E17" t="n">
-        <v>177</v>
+        <v>354</v>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G17" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="H17" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>3307</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="18">
@@ -1201,22 +1201,22 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>8244</v>
+        <v>16488</v>
       </c>
       <c r="E18" t="n">
-        <v>534</v>
+        <v>1068</v>
       </c>
       <c r="F18" t="n">
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="G18" t="n">
-        <v>322</v>
+        <v>644</v>
       </c>
       <c r="H18" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="I18" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>9310</v>
+        <v>18620</v>
       </c>
     </row>
     <row r="19">
@@ -1244,22 +1244,22 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>11233</v>
+        <v>22466</v>
       </c>
       <c r="E19" t="n">
-        <v>785</v>
+        <v>1570</v>
       </c>
       <c r="F19" t="n">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="G19" t="n">
-        <v>355</v>
+        <v>710</v>
       </c>
       <c r="H19" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="I19" t="n">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>12619</v>
+        <v>25238</v>
       </c>
     </row>
     <row r="20">
@@ -1287,22 +1287,22 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>17662</v>
+        <v>35324</v>
       </c>
       <c r="E20" t="n">
-        <v>718</v>
+        <v>1436</v>
       </c>
       <c r="F20" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="G20" t="n">
-        <v>283</v>
+        <v>566</v>
       </c>
       <c r="H20" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I20" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>18804</v>
+        <v>37608</v>
       </c>
     </row>
     <row r="21">
@@ -1330,22 +1330,22 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>24079</v>
+        <v>48158</v>
       </c>
       <c r="E21" t="n">
-        <v>328</v>
+        <v>656</v>
       </c>
       <c r="F21" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="G21" t="n">
-        <v>282</v>
+        <v>564</v>
       </c>
       <c r="H21" t="n">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="I21" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>24831</v>
+        <v>49662</v>
       </c>
     </row>
     <row r="22">
@@ -1373,22 +1373,22 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>11149</v>
+        <v>22298</v>
       </c>
       <c r="E22" t="n">
-        <v>513</v>
+        <v>1026</v>
       </c>
       <c r="F22" t="n">
-        <v>163</v>
+        <v>326</v>
       </c>
       <c r="G22" t="n">
-        <v>267</v>
+        <v>534</v>
       </c>
       <c r="H22" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="I22" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>12168</v>
+        <v>24336</v>
       </c>
     </row>
     <row r="23">
@@ -1416,22 +1416,22 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>5688</v>
+        <v>11376</v>
       </c>
       <c r="E23" t="n">
-        <v>663</v>
+        <v>1326</v>
       </c>
       <c r="F23" t="n">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="G23" t="n">
-        <v>318</v>
+        <v>636</v>
       </c>
       <c r="H23" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I23" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>6873</v>
+        <v>13746</v>
       </c>
     </row>
     <row r="24">
@@ -1459,22 +1459,22 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>1149</v>
+        <v>2298</v>
       </c>
       <c r="E24" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="F24" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="G24" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="H24" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1388</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="25">
@@ -1502,22 +1502,22 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>592</v>
+        <v>1184</v>
       </c>
       <c r="E25" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="H25" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>668</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="26">
@@ -1545,22 +1545,22 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>287</v>
+        <v>574</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>324</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27">
@@ -1588,19 +1588,19 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>326</v>
+        <v>652</v>
       </c>
       <c r="E27" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>351</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28">
@@ -1631,19 +1631,19 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>983</v>
+        <v>1966</v>
       </c>
       <c r="E28" t="n">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1096</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="29">
@@ -1674,22 +1674,22 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>7020</v>
+        <v>14040</v>
       </c>
       <c r="E29" t="n">
-        <v>204</v>
+        <v>408</v>
       </c>
       <c r="F29" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
-        <v>183</v>
+        <v>366</v>
       </c>
       <c r="H29" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>7451</v>
+        <v>14902</v>
       </c>
     </row>
     <row r="30">
@@ -1717,22 +1717,22 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8973</v>
+        <v>17946</v>
       </c>
       <c r="E30" t="n">
-        <v>589</v>
+        <v>1178</v>
       </c>
       <c r="F30" t="n">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="G30" t="n">
-        <v>343</v>
+        <v>686</v>
       </c>
       <c r="H30" t="n">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="I30" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>10147</v>
+        <v>20294</v>
       </c>
     </row>
     <row r="31">
@@ -1760,22 +1760,22 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>11550</v>
+        <v>23100</v>
       </c>
       <c r="E31" t="n">
-        <v>758</v>
+        <v>1516</v>
       </c>
       <c r="F31" t="n">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="G31" t="n">
-        <v>352</v>
+        <v>704</v>
       </c>
       <c r="H31" t="n">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="I31" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>13011</v>
+        <v>26022</v>
       </c>
     </row>
     <row r="32">
@@ -1803,22 +1803,22 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>17582</v>
+        <v>35164</v>
       </c>
       <c r="E32" t="n">
-        <v>666</v>
+        <v>1332</v>
       </c>
       <c r="F32" t="n">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="G32" t="n">
-        <v>261</v>
+        <v>522</v>
       </c>
       <c r="H32" t="n">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="I32" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>18720</v>
+        <v>37440</v>
       </c>
     </row>
     <row r="33">
@@ -1846,22 +1846,22 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>25452</v>
+        <v>50904</v>
       </c>
       <c r="E33" t="n">
-        <v>319</v>
+        <v>638</v>
       </c>
       <c r="F33" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G33" t="n">
-        <v>282</v>
+        <v>564</v>
       </c>
       <c r="H33" t="n">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="I33" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>26183</v>
+        <v>52366</v>
       </c>
     </row>
     <row r="34">
@@ -1889,22 +1889,22 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>12398</v>
+        <v>24796</v>
       </c>
       <c r="E34" t="n">
-        <v>522</v>
+        <v>1044</v>
       </c>
       <c r="F34" t="n">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="G34" t="n">
-        <v>334</v>
+        <v>668</v>
       </c>
       <c r="H34" t="n">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="I34" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>13470</v>
+        <v>26940</v>
       </c>
     </row>
     <row r="35">
@@ -1932,22 +1932,22 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>6405</v>
+        <v>12810</v>
       </c>
       <c r="E35" t="n">
-        <v>692</v>
+        <v>1384</v>
       </c>
       <c r="F35" t="n">
-        <v>169</v>
+        <v>338</v>
       </c>
       <c r="G35" t="n">
-        <v>310</v>
+        <v>620</v>
       </c>
       <c r="H35" t="n">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="I35" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>7700</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="36">
@@ -1975,22 +1975,22 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>1445</v>
+        <v>2890</v>
       </c>
       <c r="E36" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="F36" t="n">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="G36" t="n">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="H36" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1755</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="37">
@@ -2018,19 +2018,19 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>749</v>
+        <v>1498</v>
       </c>
       <c r="E37" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F37" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G37" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H37" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>848</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="38">
@@ -2061,19 +2061,19 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>284</v>
+        <v>568</v>
       </c>
       <c r="E38" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G38" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H38" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39">
@@ -2104,19 +2104,19 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>597</v>
+        <v>1194</v>
       </c>
       <c r="E39" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G39" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>665</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="40">
@@ -2147,22 +2147,22 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>1533</v>
+        <v>3066</v>
       </c>
       <c r="E40" t="n">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="H40" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1680</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="41">
@@ -2190,22 +2190,22 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>7495</v>
+        <v>14990</v>
       </c>
       <c r="E41" t="n">
-        <v>326</v>
+        <v>652</v>
       </c>
       <c r="F41" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="G41" t="n">
-        <v>173</v>
+        <v>346</v>
       </c>
       <c r="H41" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I41" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>8115</v>
+        <v>16230</v>
       </c>
     </row>
     <row r="42">
@@ -2233,22 +2233,22 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>11580</v>
+        <v>23160</v>
       </c>
       <c r="E42" t="n">
-        <v>675</v>
+        <v>1350</v>
       </c>
       <c r="F42" t="n">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="G42" t="n">
-        <v>359</v>
+        <v>718</v>
       </c>
       <c r="H42" t="n">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="I42" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>12924</v>
+        <v>25848</v>
       </c>
     </row>
     <row r="43">
@@ -2276,22 +2276,22 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>13398</v>
+        <v>26796</v>
       </c>
       <c r="E43" t="n">
-        <v>911</v>
+        <v>1822</v>
       </c>
       <c r="F43" t="n">
-        <v>217</v>
+        <v>434</v>
       </c>
       <c r="G43" t="n">
-        <v>424</v>
+        <v>848</v>
       </c>
       <c r="H43" t="n">
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="I43" t="n">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>15182</v>
+        <v>30364</v>
       </c>
     </row>
     <row r="44">
@@ -2319,22 +2319,22 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>18878</v>
+        <v>37756</v>
       </c>
       <c r="E44" t="n">
-        <v>726</v>
+        <v>1452</v>
       </c>
       <c r="F44" t="n">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="G44" t="n">
-        <v>325</v>
+        <v>650</v>
       </c>
       <c r="H44" t="n">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="I44" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>20156</v>
+        <v>40312</v>
       </c>
     </row>
     <row r="45">
@@ -2362,22 +2362,22 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>26333</v>
+        <v>52666</v>
       </c>
       <c r="E45" t="n">
-        <v>351</v>
+        <v>702</v>
       </c>
       <c r="F45" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="G45" t="n">
-        <v>376</v>
+        <v>752</v>
       </c>
       <c r="H45" t="n">
-        <v>161</v>
+        <v>322</v>
       </c>
       <c r="I45" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>27289</v>
+        <v>54578</v>
       </c>
     </row>
     <row r="46">
@@ -2405,22 +2405,22 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>13938</v>
+        <v>27876</v>
       </c>
       <c r="E46" t="n">
-        <v>651</v>
+        <v>1302</v>
       </c>
       <c r="F46" t="n">
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="G46" t="n">
-        <v>381</v>
+        <v>762</v>
       </c>
       <c r="H46" t="n">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="I46" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>15282</v>
+        <v>30564</v>
       </c>
     </row>
     <row r="47">
@@ -10130,6 +10130,92 @@
       </c>
       <c r="M225" t="n">
         <v>51356</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D226" t="n">
+        <v>8668</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F226" t="n">
+        <v>167</v>
+      </c>
+      <c r="G226" t="n">
+        <v>600</v>
+      </c>
+      <c r="H226" t="n">
+        <v>715</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>25</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>11283</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D227" t="n">
+        <v>4014</v>
+      </c>
+      <c r="E227" t="n">
+        <v>215</v>
+      </c>
+      <c r="F227" t="n">
+        <v>49</v>
+      </c>
+      <c r="G227" t="n">
+        <v>169</v>
+      </c>
+      <c r="H227" t="n">
+        <v>230</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>5</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="n">
+        <v>4683</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Wide/camino_continents_wide.xlsx
+++ b/Data/Excel_Wide/camino_continents_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M227"/>
+  <dimension ref="A1:M228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,19 +513,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1216</v>
+        <v>608</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1286</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3">
@@ -556,22 +556,22 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2664</v>
+        <v>1332</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2802</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="4">
@@ -599,19 +599,19 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>5972</v>
+        <v>2986</v>
       </c>
       <c r="E4" t="n">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6210</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="5">
@@ -642,22 +642,22 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>29868</v>
+        <v>14934</v>
       </c>
       <c r="E5" t="n">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="F5" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>446</v>
+        <v>223</v>
       </c>
       <c r="H5" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I5" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>31108</v>
+        <v>15554</v>
       </c>
     </row>
     <row r="6">
@@ -685,22 +685,22 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>31258</v>
+        <v>15629</v>
       </c>
       <c r="E6" t="n">
-        <v>1186</v>
+        <v>593</v>
       </c>
       <c r="F6" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="G6" t="n">
-        <v>974</v>
+        <v>487</v>
       </c>
       <c r="H6" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I6" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>33720</v>
+        <v>16860</v>
       </c>
     </row>
     <row r="7">
@@ -728,22 +728,22 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>35662</v>
+        <v>17831</v>
       </c>
       <c r="E7" t="n">
-        <v>1526</v>
+        <v>763</v>
       </c>
       <c r="F7" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="G7" t="n">
-        <v>1054</v>
+        <v>527</v>
       </c>
       <c r="H7" t="n">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="I7" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>38590</v>
+        <v>19295</v>
       </c>
     </row>
     <row r="8">
@@ -771,22 +771,22 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>61230</v>
+        <v>30615</v>
       </c>
       <c r="E8" t="n">
-        <v>1358</v>
+        <v>679</v>
       </c>
       <c r="F8" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="G8" t="n">
-        <v>888</v>
+        <v>444</v>
       </c>
       <c r="H8" t="n">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="I8" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>63782</v>
+        <v>31891</v>
       </c>
     </row>
     <row r="9">
@@ -814,22 +814,22 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>89570</v>
+        <v>44785</v>
       </c>
       <c r="E9" t="n">
-        <v>564</v>
+        <v>282</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>858</v>
+        <v>429</v>
       </c>
       <c r="H9" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="I9" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>91202</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="10">
@@ -857,22 +857,22 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>43088</v>
+        <v>21544</v>
       </c>
       <c r="E10" t="n">
-        <v>1148</v>
+        <v>574</v>
       </c>
       <c r="F10" t="n">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="G10" t="n">
-        <v>944</v>
+        <v>472</v>
       </c>
       <c r="H10" t="n">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="I10" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>45504</v>
+        <v>22752</v>
       </c>
     </row>
     <row r="11">
@@ -900,22 +900,22 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>26338</v>
+        <v>13169</v>
       </c>
       <c r="E11" t="n">
-        <v>1378</v>
+        <v>689</v>
       </c>
       <c r="F11" t="n">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="G11" t="n">
-        <v>1052</v>
+        <v>526</v>
       </c>
       <c r="H11" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="I11" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>29112</v>
+        <v>14556</v>
       </c>
     </row>
     <row r="12">
@@ -943,22 +943,22 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>7828</v>
+        <v>3914</v>
       </c>
       <c r="E12" t="n">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="F12" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="G12" t="n">
-        <v>644</v>
+        <v>322</v>
       </c>
       <c r="H12" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>8820</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="13">
@@ -986,19 +986,19 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>7316</v>
+        <v>3658</v>
       </c>
       <c r="E13" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="F13" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="H13" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>7604</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="14">
@@ -1029,19 +1029,19 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>458</v>
+        <v>229</v>
       </c>
       <c r="E14" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>538</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
@@ -1072,19 +1072,19 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1072</v>
+        <v>536</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H15" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1130</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16">
@@ -1115,22 +1115,22 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5796</v>
+        <v>2898</v>
       </c>
       <c r="E16" t="n">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="F16" t="n">
+        <v>13</v>
+      </c>
+      <c r="G16" t="n">
+        <v>71</v>
+      </c>
+      <c r="H16" t="n">
         <v>26</v>
       </c>
-      <c r="G16" t="n">
-        <v>142</v>
-      </c>
-      <c r="H16" t="n">
-        <v>52</v>
-      </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>6242</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="17">
@@ -1158,22 +1158,22 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>6018</v>
+        <v>3009</v>
       </c>
       <c r="E17" t="n">
-        <v>354</v>
+        <v>177</v>
       </c>
       <c r="F17" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="H17" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>6614</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="18">
@@ -1201,22 +1201,22 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>16488</v>
+        <v>8244</v>
       </c>
       <c r="E18" t="n">
-        <v>1068</v>
+        <v>534</v>
       </c>
       <c r="F18" t="n">
-        <v>282</v>
+        <v>141</v>
       </c>
       <c r="G18" t="n">
-        <v>644</v>
+        <v>322</v>
       </c>
       <c r="H18" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="I18" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>18620</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="19">
@@ -1244,22 +1244,22 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>22466</v>
+        <v>11233</v>
       </c>
       <c r="E19" t="n">
-        <v>1570</v>
+        <v>785</v>
       </c>
       <c r="F19" t="n">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="G19" t="n">
-        <v>710</v>
+        <v>355</v>
       </c>
       <c r="H19" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="I19" t="n">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>25238</v>
+        <v>12619</v>
       </c>
     </row>
     <row r="20">
@@ -1287,22 +1287,22 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>35324</v>
+        <v>17662</v>
       </c>
       <c r="E20" t="n">
-        <v>1436</v>
+        <v>718</v>
       </c>
       <c r="F20" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="G20" t="n">
-        <v>566</v>
+        <v>283</v>
       </c>
       <c r="H20" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I20" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>37608</v>
+        <v>18804</v>
       </c>
     </row>
     <row r="21">
@@ -1330,22 +1330,22 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>48158</v>
+        <v>24079</v>
       </c>
       <c r="E21" t="n">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="F21" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="G21" t="n">
-        <v>564</v>
+        <v>282</v>
       </c>
       <c r="H21" t="n">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="I21" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>49662</v>
+        <v>24831</v>
       </c>
     </row>
     <row r="22">
@@ -1373,22 +1373,22 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>22298</v>
+        <v>11149</v>
       </c>
       <c r="E22" t="n">
-        <v>1026</v>
+        <v>513</v>
       </c>
       <c r="F22" t="n">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="G22" t="n">
-        <v>534</v>
+        <v>267</v>
       </c>
       <c r="H22" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="I22" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>24336</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="23">
@@ -1416,22 +1416,22 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>11376</v>
+        <v>5688</v>
       </c>
       <c r="E23" t="n">
-        <v>1326</v>
+        <v>663</v>
       </c>
       <c r="F23" t="n">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="G23" t="n">
-        <v>636</v>
+        <v>318</v>
       </c>
       <c r="H23" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="I23" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>13746</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="24">
@@ -1459,22 +1459,22 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>2298</v>
+        <v>1149</v>
       </c>
       <c r="E24" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="F24" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="G24" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="H24" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>2776</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="25">
@@ -1502,22 +1502,22 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>1184</v>
+        <v>592</v>
       </c>
       <c r="E25" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G25" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H25" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1336</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26">
@@ -1545,22 +1545,22 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>574</v>
+        <v>287</v>
       </c>
       <c r="E26" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H26" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>648</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27">
@@ -1588,19 +1588,19 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>652</v>
+        <v>326</v>
       </c>
       <c r="E27" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>702</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28">
@@ -1631,19 +1631,19 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>1966</v>
+        <v>983</v>
       </c>
       <c r="E28" t="n">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H28" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>2192</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="29">
@@ -1674,22 +1674,22 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>14040</v>
+        <v>7020</v>
       </c>
       <c r="E29" t="n">
-        <v>408</v>
+        <v>204</v>
       </c>
       <c r="F29" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G29" t="n">
-        <v>366</v>
+        <v>183</v>
       </c>
       <c r="H29" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>14902</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="30">
@@ -1717,22 +1717,22 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>17946</v>
+        <v>8973</v>
       </c>
       <c r="E30" t="n">
-        <v>1178</v>
+        <v>589</v>
       </c>
       <c r="F30" t="n">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="G30" t="n">
-        <v>686</v>
+        <v>343</v>
       </c>
       <c r="H30" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="I30" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>20294</v>
+        <v>10147</v>
       </c>
     </row>
     <row r="31">
@@ -1760,22 +1760,22 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>23100</v>
+        <v>11550</v>
       </c>
       <c r="E31" t="n">
-        <v>1516</v>
+        <v>758</v>
       </c>
       <c r="F31" t="n">
-        <v>416</v>
+        <v>208</v>
       </c>
       <c r="G31" t="n">
-        <v>704</v>
+        <v>352</v>
       </c>
       <c r="H31" t="n">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="I31" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>26022</v>
+        <v>13011</v>
       </c>
     </row>
     <row r="32">
@@ -1803,22 +1803,22 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>35164</v>
+        <v>17582</v>
       </c>
       <c r="E32" t="n">
-        <v>1332</v>
+        <v>666</v>
       </c>
       <c r="F32" t="n">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="G32" t="n">
-        <v>522</v>
+        <v>261</v>
       </c>
       <c r="H32" t="n">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="I32" t="n">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>37440</v>
+        <v>18720</v>
       </c>
     </row>
     <row r="33">
@@ -1846,22 +1846,22 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>50904</v>
+        <v>25452</v>
       </c>
       <c r="E33" t="n">
-        <v>638</v>
+        <v>319</v>
       </c>
       <c r="F33" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="G33" t="n">
-        <v>564</v>
+        <v>282</v>
       </c>
       <c r="H33" t="n">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="I33" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>52366</v>
+        <v>26183</v>
       </c>
     </row>
     <row r="34">
@@ -1889,22 +1889,22 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>24796</v>
+        <v>12398</v>
       </c>
       <c r="E34" t="n">
-        <v>1044</v>
+        <v>522</v>
       </c>
       <c r="F34" t="n">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="G34" t="n">
-        <v>668</v>
+        <v>334</v>
       </c>
       <c r="H34" t="n">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="I34" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>26940</v>
+        <v>13470</v>
       </c>
     </row>
     <row r="35">
@@ -1932,22 +1932,22 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>12810</v>
+        <v>6405</v>
       </c>
       <c r="E35" t="n">
-        <v>1384</v>
+        <v>692</v>
       </c>
       <c r="F35" t="n">
-        <v>338</v>
+        <v>169</v>
       </c>
       <c r="G35" t="n">
-        <v>620</v>
+        <v>310</v>
       </c>
       <c r="H35" t="n">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="I35" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>15400</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="36">
@@ -1975,22 +1975,22 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>2890</v>
+        <v>1445</v>
       </c>
       <c r="E36" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="F36" t="n">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="G36" t="n">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="H36" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I36" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>3510</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="37">
@@ -2018,19 +2018,19 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>1498</v>
+        <v>749</v>
       </c>
       <c r="E37" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F37" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G37" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H37" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1696</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38">
@@ -2061,19 +2061,19 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>568</v>
+        <v>284</v>
       </c>
       <c r="E38" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H38" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
@@ -2104,19 +2104,19 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>1194</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H39" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1330</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40">
@@ -2147,22 +2147,22 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>3066</v>
+        <v>1533</v>
       </c>
       <c r="E40" t="n">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="H40" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>3360</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="41">
@@ -2190,22 +2190,22 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>14990</v>
+        <v>7495</v>
       </c>
       <c r="E41" t="n">
-        <v>652</v>
+        <v>326</v>
       </c>
       <c r="F41" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="G41" t="n">
-        <v>346</v>
+        <v>173</v>
       </c>
       <c r="H41" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="I41" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>16230</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="42">
@@ -2233,22 +2233,22 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>23160</v>
+        <v>11580</v>
       </c>
       <c r="E42" t="n">
-        <v>1350</v>
+        <v>675</v>
       </c>
       <c r="F42" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="G42" t="n">
-        <v>718</v>
+        <v>359</v>
       </c>
       <c r="H42" t="n">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="I42" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>25848</v>
+        <v>12924</v>
       </c>
     </row>
     <row r="43">
@@ -2276,22 +2276,22 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>26796</v>
+        <v>13398</v>
       </c>
       <c r="E43" t="n">
-        <v>1822</v>
+        <v>911</v>
       </c>
       <c r="F43" t="n">
-        <v>434</v>
+        <v>217</v>
       </c>
       <c r="G43" t="n">
-        <v>848</v>
+        <v>424</v>
       </c>
       <c r="H43" t="n">
-        <v>282</v>
+        <v>141</v>
       </c>
       <c r="I43" t="n">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>30364</v>
+        <v>15182</v>
       </c>
     </row>
     <row r="44">
@@ -2319,22 +2319,22 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>37756</v>
+        <v>18878</v>
       </c>
       <c r="E44" t="n">
-        <v>1452</v>
+        <v>726</v>
       </c>
       <c r="F44" t="n">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="G44" t="n">
-        <v>650</v>
+        <v>325</v>
       </c>
       <c r="H44" t="n">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="I44" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>40312</v>
+        <v>20156</v>
       </c>
     </row>
     <row r="45">
@@ -2362,22 +2362,22 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>52666</v>
+        <v>26333</v>
       </c>
       <c r="E45" t="n">
-        <v>702</v>
+        <v>351</v>
       </c>
       <c r="F45" t="n">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="G45" t="n">
-        <v>752</v>
+        <v>376</v>
       </c>
       <c r="H45" t="n">
-        <v>322</v>
+        <v>161</v>
       </c>
       <c r="I45" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>54578</v>
+        <v>27289</v>
       </c>
     </row>
     <row r="46">
@@ -2405,22 +2405,22 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>27876</v>
+        <v>13938</v>
       </c>
       <c r="E46" t="n">
-        <v>1302</v>
+        <v>651</v>
       </c>
       <c r="F46" t="n">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="G46" t="n">
-        <v>762</v>
+        <v>381</v>
       </c>
       <c r="H46" t="n">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="I46" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>30564</v>
+        <v>15282</v>
       </c>
     </row>
     <row r="47">
@@ -10216,6 +10216,49 @@
       </c>
       <c r="M227" t="n">
         <v>4683</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1470</v>
+      </c>
+      <c r="E228" t="n">
+        <v>169</v>
+      </c>
+      <c r="F228" t="n">
+        <v>24</v>
+      </c>
+      <c r="G228" t="n">
+        <v>147</v>
+      </c>
+      <c r="H228" t="n">
+        <v>213</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>5</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>2028</v>
       </c>
     </row>
   </sheetData>
